--- a/biology/Botanique/Aloe_aristata/Aloe_aristata.xlsx
+++ b/biology/Botanique/Aloe_aristata/Aloe_aristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloe aristata, est une espèce de plantes à fleurs de la famille des Xanthorrhoeaceae, originaire d'Afrique du Sud, du Lesotho et de ses pays limitrophes. Plante succulente, acaule, au feuilles dentelées, elle produit des fleurs riches en nectar qui attirent facilement les abeilles et les oiseaux. Elle résiste à un gel modéré, jusqu'à -10 °C.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Spécimen cultivé au jardin botanique de Longwood Gardens, aux USA.
@@ -547,12 +561,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1825 par le botaniste britannique Adrian Hardy Haworth (1767-1833). Son épithète spécifique signifie « barbu »[3].
-Cette plante fait partie du genre Aloe. En classification phylogénétique APG III (2009)[4] ce genre fait partie de la famille des Xanthorrhoeaceae, dans l'ordre des Asparagales. En classification classique de Cronquist (1981)[5] il était assigné à celle des Aloeaceae, dans l'ordre des Liliales.
-Liste des variétés
-Selon Tropicos                                           (21 janvier 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1825 par le botaniste britannique Adrian Hardy Haworth (1767-1833). Son épithète spécifique signifie « barbu ».
+Cette plante fait partie du genre Aloe. En classification phylogénétique APG III (2009) ce genre fait partie de la famille des Xanthorrhoeaceae, dans l'ordre des Asparagales. En classification classique de Cronquist (1981) il était assigné à celle des Aloeaceae, dans l'ordre des Liliales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aloe_aristata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aloe_aristata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Aloe aristata var. leiophylla Baker
 variété Aloe aristata var. parviflora Baker
 variété Aloe aristata var. parvifolia Baker</t>
